--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2005.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2005.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>14.255309</v>
+        <v>142553.09</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>489.592195</v>
+        <v>4895921.95</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>17.195924</v>
+        <v>171959.24</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>17.273643</v>
+        <v>172736.43</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>112.473982</v>
+        <v>1124739.82</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>9.405928</v>
+        <v>94059.28</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.048845</v>
+        <v>10488.45</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.000664</v>
+        <v>10006.64</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>10.382698</v>
+        <v>103826.98</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>26.373742</v>
+        <v>263737.42</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>14.258453</v>
+        <v>142584.53</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>50.182297</v>
+        <v>501822.97</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>41.739414</v>
+        <v>417394.14</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>12.22606</v>
+        <v>122260.6</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>100.829595</v>
+        <v>1008295.95</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>11.122697</v>
+        <v>111226.97</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>86.51666</v>
+        <v>865166.6</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>10.993877</v>
+        <v>109938.77</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.413103</v>
+        <v>14131.03</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1.18116</v>
+        <v>11811.6</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>1551.3694</v>
+        <v>15513694</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>98.36139</v>
+        <v>983613.9</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>4.797983</v>
+        <v>47979.83</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>18.897693</v>
+        <v>188976.93</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>231.732817</v>
+        <v>2317328.17</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>19.082327</v>
+        <v>190823.27</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>50.709287</v>
+        <v>507092.87</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>8.002926</v>
+        <v>80029.26</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>15.917455</v>
+        <v>159174.55</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>38.69539</v>
+        <v>386953.9</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>35.705929</v>
+        <v>357059.29</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
